--- a/exam.xlsx
+++ b/exam.xlsx
@@ -8,14 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="exam" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="exam1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="新しいシート" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="新しいシート1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="新しいシート2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="新しいシート3" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="新しいシート20240824-205408" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="新しいシート20240824-210212" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="新しいシート20240824-225745" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="新しいシート20240824-225843" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001"/>
@@ -280,7 +274,7 @@
       <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData/>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -302,127 +296,83 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>(-23) + (8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>(-2) + (34)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>(46) + (19)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>(-23) + (-2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>(-2) + (-46)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>(13) + (0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>(5) + (25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>(-32) + (27)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>(26) + (40)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -439,63 +389,63 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>B1です</t>
+          <t>(-7) + (38)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>B1です</t>
+          <t>(-46) + (13)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>B1です</t>
+          <t>(43) + (-14)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>B1です</t>
+          <t>(-50) + (-31)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>B1です</t>
+          <t>(17) + (-22)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>B1です</t>
+          <t>(-12) + (-32)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>B1です</t>
+          <t>(-50) + (-43)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>B1です</t>
+          <t>(29) + (35)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>B1です</t>
+          <t>(-23) + (38)</t>
         </is>
       </c>
     </row>
